--- a/docs/codes.xlsx
+++ b/docs/codes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_projects\JsonBUS\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{99DC0523-754F-40BE-A6E1-A2B2D5898AAE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FEE3F3B-3BAE-4475-8014-98CB9952E925}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14355" yWindow="0" windowWidth="28920" windowHeight="15360" xr2:uid="{5A54204E-C262-430F-B142-0D162BB2EBCD}"/>
+    <workbookView xWindow="-45" yWindow="0" windowWidth="28680" windowHeight="15360" xr2:uid="{5A54204E-C262-430F-B142-0D162BB2EBCD}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="59">
   <si>
     <t>feature ID</t>
   </si>
@@ -51,9 +51,6 @@
     <t>engine on/off</t>
   </si>
   <si>
-    <t>cruisecontrol on/off</t>
-  </si>
-  <si>
     <t>temperature</t>
   </si>
   <si>
@@ -165,9 +162,6 @@
     <t>Turns on low beam light indicator. Not enabled when electricity is off.</t>
   </si>
   <si>
-    <t>Turns on cruise control indicator.</t>
-  </si>
-  <si>
     <t>When engine is started, the indicator of battery will turn off (remains turned on after electricity is on).</t>
   </si>
   <si>
@@ -186,7 +180,34 @@
     <t>Enabled only when electricity is off. Turns on all lights for 10 seconds and then each light separately after 500ms.</t>
   </si>
   <si>
-    <t>events</t>
+    <t>internet connected/disconnected</t>
+  </si>
+  <si>
+    <t>Turns on/off airbag indicator.</t>
+  </si>
+  <si>
+    <t>trailer attached indicator</t>
+  </si>
+  <si>
+    <t>beacon light indicator</t>
+  </si>
+  <si>
+    <t>right display message TRIP</t>
+  </si>
+  <si>
+    <t>left display message TIME</t>
+  </si>
+  <si>
+    <t>left display message CRUISECONTROL</t>
+  </si>
+  <si>
+    <t>right display message FUEL RANGE</t>
+  </si>
+  <si>
+    <t>right display message FUEL AMOUNT</t>
+  </si>
+  <si>
+    <t>text</t>
   </si>
 </sst>
 </file>
@@ -232,7 +253,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -246,6 +267,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
@@ -560,10 +585,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3742181F-5B02-40FD-B855-0678E56D0CED}">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E2"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -589,7 +614,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -610,7 +635,7 @@
         <v>0.1</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -624,21 +649,22 @@
         <v>0.1</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+      <c r="A5" s="5">
         <v>232</v>
       </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="E5" t="s">
-        <v>44</v>
+      <c r="B5" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -646,16 +672,16 @@
         <v>233</v>
       </c>
       <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" t="s">
         <v>8</v>
       </c>
-      <c r="D6" t="s">
-        <v>9</v>
-      </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -663,16 +689,16 @@
         <v>234</v>
       </c>
       <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" t="s">
         <v>14</v>
-      </c>
-      <c r="D7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -680,16 +706,16 @@
         <v>235</v>
       </c>
       <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" t="s">
         <v>16</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -697,16 +723,16 @@
         <v>236</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -714,13 +740,13 @@
         <v>237</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C10" s="2">
         <v>0.1</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -728,13 +754,13 @@
         <v>238</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C11" s="2">
         <v>0.1</v>
       </c>
       <c r="E11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -742,13 +768,13 @@
         <v>239</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C12" s="2">
         <v>0.1</v>
       </c>
       <c r="E12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -756,16 +782,16 @@
         <v>240</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>26</v>
-      </c>
-      <c r="E13" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -773,13 +799,13 @@
         <v>241</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C14" s="2">
         <v>0.1</v>
       </c>
       <c r="E14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -787,75 +813,81 @@
         <v>242</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C15" s="2">
         <v>0.1</v>
       </c>
       <c r="E15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
-        <v>243</v>
-      </c>
-      <c r="B16" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="E16" t="s">
-        <v>38</v>
-      </c>
+      <c r="A16" s="3"/>
+      <c r="C16" s="3"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>244</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>14</v>
+        <v>28</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0.1</v>
       </c>
       <c r="E17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>245</v>
+      </c>
+      <c r="B18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>246</v>
+      </c>
+      <c r="B19" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C18" s="2"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
+      <c r="C19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <v>300</v>
+        <v>247</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D20" t="s">
         <v>35</v>
       </c>
+      <c r="C20" s="2">
+        <v>0.1</v>
+      </c>
       <c r="E20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>301</v>
+        <v>248</v>
       </c>
       <c r="B21" t="s">
         <v>36</v>
@@ -864,43 +896,106 @@
         <v>0.1</v>
       </c>
       <c r="E21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>249</v>
+      </c>
+      <c r="B22" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>250</v>
+      </c>
+      <c r="B23" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>251</v>
+      </c>
+      <c r="B24" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>252</v>
+      </c>
+      <c r="B25" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>253</v>
+      </c>
+      <c r="B26" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>254</v>
+      </c>
+      <c r="B27" t="s">
+        <v>57</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>255</v>
+      </c>
+      <c r="B28" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="3"/>
+      <c r="C29" s="3"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>888</v>
+      </c>
+      <c r="B30" t="s">
+        <v>44</v>
+      </c>
+      <c r="C30" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="E30" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
-        <v>302</v>
-      </c>
-      <c r="B22" t="s">
-        <v>37</v>
-      </c>
-      <c r="C22" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="E22" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C23" s="2"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
-        <v>888</v>
-      </c>
-      <c r="B24" t="s">
-        <v>46</v>
-      </c>
-      <c r="C24" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="E24" t="s">
-        <v>50</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A19:E19"/>
+  <mergeCells count="1">
     <mergeCell ref="A2:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
